--- a/data/pca/factorExposure/factorExposure_2016-01-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-01-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01410910760880544</v>
+        <v>-0.01884736578301593</v>
       </c>
       <c r="C2">
-        <v>-0.04093577556032671</v>
+        <v>-0.03599463428048238</v>
       </c>
       <c r="D2">
-        <v>-0.1121510314543309</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1209152122775495</v>
+      </c>
+      <c r="E2">
+        <v>0.08827142410033645</v>
+      </c>
+      <c r="F2">
+        <v>-0.01013338217496186</v>
+      </c>
+      <c r="G2">
+        <v>-0.03634195930357436</v>
+      </c>
+      <c r="H2">
+        <v>0.0921764872109706</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.02370178021393191</v>
+        <v>-0.01383820343867126</v>
       </c>
       <c r="C3">
-        <v>-0.08782306121897032</v>
+        <v>-0.04327859943124301</v>
       </c>
       <c r="D3">
-        <v>-0.1398185124705082</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.07972709817804345</v>
+      </c>
+      <c r="E3">
+        <v>0.1103255331767436</v>
+      </c>
+      <c r="F3">
+        <v>0.03494021711140832</v>
+      </c>
+      <c r="G3">
+        <v>-0.08210748261224583</v>
+      </c>
+      <c r="H3">
+        <v>0.0660789271892635</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.058692746748435</v>
+        <v>-0.06056613306514</v>
       </c>
       <c r="C4">
-        <v>-0.06695383392386037</v>
+        <v>-0.06786854500953653</v>
       </c>
       <c r="D4">
-        <v>-0.1109980020317065</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1250867825372058</v>
+      </c>
+      <c r="E4">
+        <v>0.07534701639667349</v>
+      </c>
+      <c r="F4">
+        <v>0.0118542289333603</v>
+      </c>
+      <c r="G4">
+        <v>0.03579913538190508</v>
+      </c>
+      <c r="H4">
+        <v>-0.02891459307549411</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.04307543344349962</v>
+        <v>-0.04029189775575707</v>
       </c>
       <c r="C6">
-        <v>-0.03672860311806597</v>
+        <v>-0.0274115521862363</v>
       </c>
       <c r="D6">
-        <v>-0.1118536827515418</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1250182685334176</v>
+      </c>
+      <c r="E6">
+        <v>0.04701997389523858</v>
+      </c>
+      <c r="F6">
+        <v>0.009963714997452485</v>
+      </c>
+      <c r="G6">
+        <v>-0.005911149660560788</v>
+      </c>
+      <c r="H6">
+        <v>0.004944892110884883</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02740812441489682</v>
+        <v>-0.02027659447657902</v>
       </c>
       <c r="C7">
-        <v>-0.03784370428851387</v>
+        <v>-0.03661058615611772</v>
       </c>
       <c r="D7">
-        <v>-0.07640791751451197</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.08764052342926811</v>
+      </c>
+      <c r="E7">
+        <v>0.05912144930247179</v>
+      </c>
+      <c r="F7">
+        <v>0.02006175893292257</v>
+      </c>
+      <c r="G7">
+        <v>0.05917773153998096</v>
+      </c>
+      <c r="H7">
+        <v>0.08665707947973866</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.007098432461980973</v>
+        <v>-0.007383842961463821</v>
       </c>
       <c r="C8">
-        <v>-0.04340133152797519</v>
+        <v>-0.03684939535724728</v>
       </c>
       <c r="D8">
-        <v>-0.06941641440048334</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.07946709497066717</v>
+      </c>
+      <c r="E8">
+        <v>0.04237746800358288</v>
+      </c>
+      <c r="F8">
+        <v>0.02162156051754094</v>
+      </c>
+      <c r="G8">
+        <v>-0.007826774299065959</v>
+      </c>
+      <c r="H8">
+        <v>0.02452570540983188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.04081925523931663</v>
+        <v>-0.04388338837102</v>
       </c>
       <c r="C9">
-        <v>-0.04846018770274087</v>
+        <v>-0.05589918336901945</v>
       </c>
       <c r="D9">
-        <v>-0.09038995794116422</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1076872018371974</v>
+      </c>
+      <c r="E9">
+        <v>0.05048257030354888</v>
+      </c>
+      <c r="F9">
+        <v>0.000646896634384817</v>
+      </c>
+      <c r="G9">
+        <v>0.0380181085738847</v>
+      </c>
+      <c r="H9">
+        <v>-0.002361710330983404</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.08437938174720627</v>
+        <v>-0.1141702046810187</v>
       </c>
       <c r="C10">
-        <v>0.1872571726605462</v>
+        <v>0.1959046965115595</v>
       </c>
       <c r="D10">
-        <v>-0.01928466391105425</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.001350034367716274</v>
+      </c>
+      <c r="E10">
+        <v>0.05039914632838235</v>
+      </c>
+      <c r="F10">
+        <v>0.01325250359293592</v>
+      </c>
+      <c r="G10">
+        <v>0.02655083404190446</v>
+      </c>
+      <c r="H10">
+        <v>-0.02367580478854451</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.04146054238323046</v>
+        <v>-0.03412521085176779</v>
       </c>
       <c r="C11">
-        <v>-0.04958573777706569</v>
+        <v>-0.04569206002204465</v>
       </c>
       <c r="D11">
-        <v>-0.0561442965816583</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05585404863595606</v>
+      </c>
+      <c r="E11">
+        <v>0.02096420338141732</v>
+      </c>
+      <c r="F11">
+        <v>0.00947448338773289</v>
+      </c>
+      <c r="G11">
+        <v>0.04167310768394664</v>
+      </c>
+      <c r="H11">
+        <v>0.05332423490602062</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04682375307146561</v>
+        <v>-0.03789406151958649</v>
       </c>
       <c r="C12">
-        <v>-0.04642199393223531</v>
+        <v>-0.04531597601606489</v>
       </c>
       <c r="D12">
-        <v>-0.04775453108598735</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05441677391000547</v>
+      </c>
+      <c r="E12">
+        <v>0.03139274019706798</v>
+      </c>
+      <c r="F12">
+        <v>0.0007389982215224764</v>
+      </c>
+      <c r="G12">
+        <v>0.03872998262952122</v>
+      </c>
+      <c r="H12">
+        <v>0.06005972570999507</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01962509475355427</v>
+        <v>-0.02098778684824877</v>
       </c>
       <c r="C13">
-        <v>-0.04545656117454987</v>
+        <v>-0.03849078731663857</v>
       </c>
       <c r="D13">
-        <v>-0.1080924531029239</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1309737061477187</v>
+      </c>
+      <c r="E13">
+        <v>0.08975039093016668</v>
+      </c>
+      <c r="F13">
+        <v>0.02191617613377411</v>
+      </c>
+      <c r="G13">
+        <v>0.04621322514198883</v>
+      </c>
+      <c r="H13">
+        <v>0.07158288304334511</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01422696334527211</v>
+        <v>-0.008393334836632127</v>
       </c>
       <c r="C14">
-        <v>-0.02909970748864189</v>
+        <v>-0.02662541618461545</v>
       </c>
       <c r="D14">
-        <v>-0.06983771643538103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.07981063504091079</v>
+      </c>
+      <c r="E14">
+        <v>0.05483320717881459</v>
+      </c>
+      <c r="F14">
+        <v>-0.008954765386324113</v>
+      </c>
+      <c r="G14">
+        <v>0.03690701451232857</v>
+      </c>
+      <c r="H14">
+        <v>0.0838171132957717</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0009390679708780269</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>-0.005875286392882471</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.02118376159966454</v>
+      </c>
+      <c r="E15">
+        <v>0.003718215577317195</v>
+      </c>
+      <c r="F15">
+        <v>-0.002284080754082021</v>
+      </c>
+      <c r="G15">
+        <v>-0.002326984988056922</v>
+      </c>
+      <c r="H15">
+        <v>0.01281783724352171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.04239408037961963</v>
+        <v>-0.03466749094929492</v>
       </c>
       <c r="C16">
-        <v>-0.05036804930060566</v>
+        <v>-0.04592037840585812</v>
       </c>
       <c r="D16">
-        <v>-0.05833035630873945</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06131126764841949</v>
+      </c>
+      <c r="E16">
+        <v>0.03084710575848275</v>
+      </c>
+      <c r="F16">
+        <v>-0.01087254233762552</v>
+      </c>
+      <c r="G16">
+        <v>0.03420936129230182</v>
+      </c>
+      <c r="H16">
+        <v>0.05889687084015979</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.01734135132522131</v>
+        <v>-0.01374073708898714</v>
       </c>
       <c r="C19">
-        <v>-0.04786133818422334</v>
+        <v>-0.03429523941216756</v>
       </c>
       <c r="D19">
-        <v>-0.1636075253154394</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1334856826420161</v>
+      </c>
+      <c r="E19">
+        <v>0.0824265770758381</v>
+      </c>
+      <c r="F19">
+        <v>-0.03192189502963332</v>
+      </c>
+      <c r="G19">
+        <v>0.003157109426008846</v>
+      </c>
+      <c r="H19">
+        <v>0.04858273709228037</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.02151806850377916</v>
+        <v>-0.01711492622034259</v>
       </c>
       <c r="C20">
-        <v>-0.04220591862317933</v>
+        <v>-0.03706633935611387</v>
       </c>
       <c r="D20">
-        <v>-0.08517456378684361</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.09110282033694576</v>
+      </c>
+      <c r="E20">
+        <v>0.06925138449272115</v>
+      </c>
+      <c r="F20">
+        <v>-0.009943679595180896</v>
+      </c>
+      <c r="G20">
+        <v>0.02311997423213129</v>
+      </c>
+      <c r="H20">
+        <v>0.04285158760547832</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01639037398659867</v>
+        <v>-0.0155835219734479</v>
       </c>
       <c r="C21">
-        <v>-0.04138620281740988</v>
+        <v>-0.03860678867176252</v>
       </c>
       <c r="D21">
-        <v>-0.1088569673432363</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1284748053810754</v>
+      </c>
+      <c r="E21">
+        <v>0.1117187505655818</v>
+      </c>
+      <c r="F21">
+        <v>-0.01897247029614168</v>
+      </c>
+      <c r="G21">
+        <v>0.07109333645554811</v>
+      </c>
+      <c r="H21">
+        <v>0.07257448400193763</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.001468322564399106</v>
+        <v>-0.0054458746803814</v>
       </c>
       <c r="C22">
-        <v>-0.01168344195735095</v>
+        <v>-0.032114825296685</v>
       </c>
       <c r="D22">
-        <v>-0.04862239663217493</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1109368296051697</v>
+      </c>
+      <c r="E22">
+        <v>0.03617655072498223</v>
+      </c>
+      <c r="F22">
+        <v>0.06786725446341364</v>
+      </c>
+      <c r="G22">
+        <v>-0.05927553181852138</v>
+      </c>
+      <c r="H22">
+        <v>-0.01408777459410203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.001421758365821443</v>
+        <v>-0.005540555524148121</v>
       </c>
       <c r="C23">
-        <v>-0.01151229070935189</v>
+        <v>-0.03242928287499736</v>
       </c>
       <c r="D23">
-        <v>-0.04828013098089844</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1102303910671389</v>
+      </c>
+      <c r="E23">
+        <v>0.03628521317681045</v>
+      </c>
+      <c r="F23">
+        <v>0.06776602356651866</v>
+      </c>
+      <c r="G23">
+        <v>-0.05869530620529823</v>
+      </c>
+      <c r="H23">
+        <v>-0.01461766296201104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03909318755280062</v>
+        <v>-0.03596864101810206</v>
       </c>
       <c r="C24">
-        <v>-0.05092590482534162</v>
+        <v>-0.05391126956591685</v>
       </c>
       <c r="D24">
-        <v>-0.05990507206097431</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06451333966984567</v>
+      </c>
+      <c r="E24">
+        <v>0.03349526760506059</v>
+      </c>
+      <c r="F24">
+        <v>-0.007864246142159711</v>
+      </c>
+      <c r="G24">
+        <v>0.04997963663109669</v>
+      </c>
+      <c r="H24">
+        <v>0.06057225646720283</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.04789527982359231</v>
+        <v>-0.04115817399173024</v>
       </c>
       <c r="C25">
-        <v>-0.0565390294134344</v>
+        <v>-0.05368076037703513</v>
       </c>
       <c r="D25">
-        <v>-0.05570626964545237</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05716066007091915</v>
+      </c>
+      <c r="E25">
+        <v>0.03329866271200898</v>
+      </c>
+      <c r="F25">
+        <v>0.009561693216957693</v>
+      </c>
+      <c r="G25">
+        <v>0.05062041394825421</v>
+      </c>
+      <c r="H25">
+        <v>0.04906256952045125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02387459343996849</v>
+        <v>-0.0202530014660718</v>
       </c>
       <c r="C26">
-        <v>-0.01382045418929906</v>
+        <v>-0.01624838677230897</v>
       </c>
       <c r="D26">
-        <v>-0.05603048298703586</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.06721267302482513</v>
+      </c>
+      <c r="E26">
+        <v>0.03781206358170788</v>
+      </c>
+      <c r="F26">
+        <v>-0.01321028871549971</v>
+      </c>
+      <c r="G26">
+        <v>0.01419409811493025</v>
+      </c>
+      <c r="H26">
+        <v>0.04932416996311859</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1163939926253804</v>
+        <v>-0.1623195400593598</v>
       </c>
       <c r="C28">
-        <v>0.2724979371543139</v>
+        <v>0.2613596211754918</v>
       </c>
       <c r="D28">
-        <v>0.02085136861051048</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01395470964813937</v>
+      </c>
+      <c r="E28">
+        <v>0.07507446092205462</v>
+      </c>
+      <c r="F28">
+        <v>0.007952507154831871</v>
+      </c>
+      <c r="G28">
+        <v>0.06685044457802553</v>
+      </c>
+      <c r="H28">
+        <v>-0.02653014232413421</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.008504034311467734</v>
+        <v>-0.007845478247675985</v>
       </c>
       <c r="C29">
-        <v>-0.02691011974854797</v>
+        <v>-0.02440219591186015</v>
       </c>
       <c r="D29">
-        <v>-0.05352052073919494</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.07222424344178613</v>
+      </c>
+      <c r="E29">
+        <v>0.05928187423791131</v>
+      </c>
+      <c r="F29">
+        <v>0.002735839946970238</v>
+      </c>
+      <c r="G29">
+        <v>0.04657785530244859</v>
+      </c>
+      <c r="H29">
+        <v>0.07672476330103904</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.04316579856828957</v>
+        <v>-0.04398802162447474</v>
       </c>
       <c r="C30">
-        <v>-0.03477334824268527</v>
+        <v>-0.05183771882349562</v>
       </c>
       <c r="D30">
-        <v>-0.1495578279274941</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1709582113416437</v>
+      </c>
+      <c r="E30">
+        <v>0.03764015518585079</v>
+      </c>
+      <c r="F30">
+        <v>-0.006926766632805319</v>
+      </c>
+      <c r="G30">
+        <v>-0.02170711101596655</v>
+      </c>
+      <c r="H30">
+        <v>0.01736652741826709</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06982350672785782</v>
+        <v>-0.06398542722353402</v>
       </c>
       <c r="C31">
-        <v>-0.05990483368316343</v>
+        <v>-0.07145060563421353</v>
       </c>
       <c r="D31">
-        <v>-0.05074150881102519</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.04970824237806164</v>
+      </c>
+      <c r="E31">
+        <v>0.06274429460853273</v>
+      </c>
+      <c r="F31">
+        <v>0.03578885587540304</v>
+      </c>
+      <c r="G31">
+        <v>0.03066820072215917</v>
+      </c>
+      <c r="H31">
+        <v>0.02403293252434048</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.002187069595293874</v>
+        <v>-0.01039509566389889</v>
       </c>
       <c r="C32">
-        <v>-0.01164599970211284</v>
+        <v>-0.01973294914058079</v>
       </c>
       <c r="D32">
-        <v>-0.0687703515802565</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.09131156970482469</v>
+      </c>
+      <c r="E32">
+        <v>0.09362837768472093</v>
+      </c>
+      <c r="F32">
+        <v>-0.01411298956298304</v>
+      </c>
+      <c r="G32">
+        <v>0.06295602752545307</v>
+      </c>
+      <c r="H32">
+        <v>0.05196042567530666</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.0317558576359681</v>
+        <v>-0.02705015366372369</v>
       </c>
       <c r="C33">
-        <v>-0.04262976786854988</v>
+        <v>-0.04435188902004827</v>
       </c>
       <c r="D33">
-        <v>-0.121900855192021</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1266726456892177</v>
+      </c>
+      <c r="E33">
+        <v>0.06707714249402065</v>
+      </c>
+      <c r="F33">
+        <v>0.01338021358300249</v>
+      </c>
+      <c r="G33">
+        <v>0.04062927332249914</v>
+      </c>
+      <c r="H33">
+        <v>0.05143479175565684</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.04091205691430954</v>
+        <v>-0.03558045307978803</v>
       </c>
       <c r="C34">
-        <v>-0.06223716427330708</v>
+        <v>-0.06141437988527348</v>
       </c>
       <c r="D34">
-        <v>-0.05775447535832208</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05682838064466288</v>
+      </c>
+      <c r="E34">
+        <v>0.01635377130370063</v>
+      </c>
+      <c r="F34">
+        <v>-0.0005556758390963633</v>
+      </c>
+      <c r="G34">
+        <v>0.05760528175986931</v>
+      </c>
+      <c r="H34">
+        <v>0.06960688635221643</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-0.0002505809208334146</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.0001617662635003612</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.001636712859515829</v>
+      </c>
+      <c r="E35">
+        <v>-4.260911025366527e-05</v>
+      </c>
+      <c r="F35">
+        <v>0.0002039059247802321</v>
+      </c>
+      <c r="G35">
+        <v>0.0004880703365990958</v>
+      </c>
+      <c r="H35">
+        <v>0.001979458084888451</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02229418883803605</v>
+        <v>-0.01871245530244264</v>
       </c>
       <c r="C36">
-        <v>-0.01610932458801048</v>
+        <v>-0.01741654828362378</v>
       </c>
       <c r="D36">
-        <v>-0.06321924080433407</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.07175861219056395</v>
+      </c>
+      <c r="E36">
+        <v>0.05348689988404301</v>
+      </c>
+      <c r="F36">
+        <v>-0.004753403285524702</v>
+      </c>
+      <c r="G36">
+        <v>0.03422471467281774</v>
+      </c>
+      <c r="H36">
+        <v>0.04128998203672487</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.033353536345557</v>
+        <v>-0.02460939846957206</v>
       </c>
       <c r="C38">
-        <v>-0.03066457976924047</v>
+        <v>-0.02521909483578832</v>
       </c>
       <c r="D38">
-        <v>-0.03879059041154231</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.05489090142604703</v>
+      </c>
+      <c r="E38">
+        <v>0.04382221068594864</v>
+      </c>
+      <c r="F38">
+        <v>-0.002532131283334066</v>
+      </c>
+      <c r="G38">
+        <v>-0.01425294881807416</v>
+      </c>
+      <c r="H38">
+        <v>0.03644468186489364</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.04622421661158892</v>
+        <v>-0.04123930520521204</v>
       </c>
       <c r="C39">
-        <v>-0.05736050631348096</v>
+        <v>-0.06105540434978744</v>
       </c>
       <c r="D39">
-        <v>-0.07699856163031248</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.09541372587444048</v>
+      </c>
+      <c r="E39">
+        <v>0.02756754326438634</v>
+      </c>
+      <c r="F39">
+        <v>-0.02186442363925952</v>
+      </c>
+      <c r="G39">
+        <v>0.03731102633390543</v>
+      </c>
+      <c r="H39">
+        <v>0.07803044674049121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01303261652877031</v>
+        <v>-0.01573178740407111</v>
       </c>
       <c r="C40">
-        <v>-0.05208480240927855</v>
+        <v>-0.03880997086654241</v>
       </c>
       <c r="D40">
-        <v>-0.07756957818759173</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.09093231917579879</v>
+      </c>
+      <c r="E40">
+        <v>0.09358319781054512</v>
+      </c>
+      <c r="F40">
+        <v>0.04062546590437792</v>
+      </c>
+      <c r="G40">
+        <v>0.01893989236383933</v>
+      </c>
+      <c r="H40">
+        <v>0.1317283934845862</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.02816050257503692</v>
+        <v>-0.02282279921461867</v>
       </c>
       <c r="C41">
-        <v>-0.008368491141948852</v>
+        <v>-0.01131343129245856</v>
       </c>
       <c r="D41">
-        <v>-0.06550053630889245</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.05647902039282292</v>
+      </c>
+      <c r="E41">
+        <v>0.06573891448989044</v>
+      </c>
+      <c r="F41">
+        <v>-0.004874009698245576</v>
+      </c>
+      <c r="G41">
+        <v>0.02331173516601137</v>
+      </c>
+      <c r="H41">
+        <v>0.04100906421821811</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.04377742584180017</v>
+        <v>-0.02879049240489902</v>
       </c>
       <c r="C43">
-        <v>-0.02934996970450253</v>
+        <v>-0.02345107223707049</v>
       </c>
       <c r="D43">
-        <v>-0.1006946311759329</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.08721549812335073</v>
+      </c>
+      <c r="E43">
+        <v>0.06158466746054225</v>
+      </c>
+      <c r="F43">
+        <v>0.006599242662900758</v>
+      </c>
+      <c r="G43">
+        <v>0.03488569132509404</v>
+      </c>
+      <c r="H43">
+        <v>0.05997973890094283</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.015806030332888</v>
+        <v>-0.01826648233339634</v>
       </c>
       <c r="C44">
-        <v>-0.05754836991183481</v>
+        <v>-0.04346239187775734</v>
       </c>
       <c r="D44">
-        <v>-0.06517218066585298</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.08949345099756771</v>
+      </c>
+      <c r="E44">
+        <v>0.07668476974527945</v>
+      </c>
+      <c r="F44">
+        <v>-0.01894007398835265</v>
+      </c>
+      <c r="G44">
+        <v>0.03464311523764426</v>
+      </c>
+      <c r="H44">
+        <v>0.04868277490410889</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01875596021278853</v>
+        <v>-0.01636724643329329</v>
       </c>
       <c r="C46">
-        <v>-0.02769829162289965</v>
+        <v>-0.03103778062434674</v>
       </c>
       <c r="D46">
-        <v>-0.05830569313145606</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.07448658601990096</v>
+      </c>
+      <c r="E46">
+        <v>0.0605308471949924</v>
+      </c>
+      <c r="F46">
+        <v>-0.01708985399359516</v>
+      </c>
+      <c r="G46">
+        <v>0.06403357875559063</v>
+      </c>
+      <c r="H46">
+        <v>0.07866942838646461</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09778495526515872</v>
+        <v>-0.09517856297524151</v>
       </c>
       <c r="C47">
-        <v>-0.08091398553094564</v>
+        <v>-0.08879696312372717</v>
       </c>
       <c r="D47">
-        <v>-0.02459694793292274</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.0294020002741496</v>
+      </c>
+      <c r="E47">
+        <v>0.05161905735782282</v>
+      </c>
+      <c r="F47">
+        <v>0.02488759702253037</v>
+      </c>
+      <c r="G47">
+        <v>0.06004494408237332</v>
+      </c>
+      <c r="H47">
+        <v>-0.009484823918169722</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.02742774953180854</v>
+        <v>-0.02213422591619691</v>
       </c>
       <c r="C48">
-        <v>-0.02141872822138245</v>
+        <v>-0.0220114540369364</v>
       </c>
       <c r="D48">
-        <v>-0.05752498937454893</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.07100665457844985</v>
+      </c>
+      <c r="E48">
+        <v>0.0654129484293816</v>
+      </c>
+      <c r="F48">
+        <v>-0.01630246376173893</v>
+      </c>
+      <c r="G48">
+        <v>0.04135084247418649</v>
+      </c>
+      <c r="H48">
+        <v>0.04241246547021632</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08563554067175527</v>
+        <v>-0.07195495659286265</v>
       </c>
       <c r="C50">
-        <v>-0.09301294197661608</v>
+        <v>-0.07855463642396264</v>
       </c>
       <c r="D50">
-        <v>-0.03998093611655209</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.05121705946128744</v>
+      </c>
+      <c r="E50">
+        <v>0.07457904572579559</v>
+      </c>
+      <c r="F50">
+        <v>0.04291212644411246</v>
+      </c>
+      <c r="G50">
+        <v>0.01449515191088561</v>
+      </c>
+      <c r="H50">
+        <v>0.04427880589805672</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01291201195886939</v>
+        <v>-0.01108540970651592</v>
       </c>
       <c r="C51">
-        <v>-0.03396109763343436</v>
+        <v>-0.02210892484506709</v>
       </c>
       <c r="D51">
-        <v>-0.09146873035777495</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.0901937818273425</v>
+      </c>
+      <c r="E51">
+        <v>0.04445787148018237</v>
+      </c>
+      <c r="F51">
+        <v>-0.007492385269917834</v>
+      </c>
+      <c r="G51">
+        <v>0.01777198658565519</v>
+      </c>
+      <c r="H51">
+        <v>0.072943840442555</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.0852435296582706</v>
+        <v>-0.09833324136381005</v>
       </c>
       <c r="C53">
-        <v>-0.09303068187789246</v>
+        <v>-0.09570664245857148</v>
       </c>
       <c r="D53">
-        <v>0.005669246362167452</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.007882570494460547</v>
+      </c>
+      <c r="E53">
+        <v>0.1028593955292982</v>
+      </c>
+      <c r="F53">
+        <v>0.01611046173781144</v>
+      </c>
+      <c r="G53">
+        <v>0.07612839940984635</v>
+      </c>
+      <c r="H53">
+        <v>-0.06328752375250757</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.03902791016438588</v>
+        <v>-0.03021601777040848</v>
       </c>
       <c r="C54">
-        <v>-0.03940461633913964</v>
+        <v>-0.03546026963817948</v>
       </c>
       <c r="D54">
-        <v>-0.06620384708097984</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.0823743528629981</v>
+      </c>
+      <c r="E54">
+        <v>0.06433405736812399</v>
+      </c>
+      <c r="F54">
+        <v>-0.0185608637630553</v>
+      </c>
+      <c r="G54">
+        <v>0.04182930743205446</v>
+      </c>
+      <c r="H54">
+        <v>0.1004626069570523</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.087902534784168</v>
+        <v>-0.09403565964094238</v>
       </c>
       <c r="C55">
-        <v>-0.07136856806537691</v>
+        <v>-0.07990589352338066</v>
       </c>
       <c r="D55">
-        <v>0.008320999284474669</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.01535348701123808</v>
+      </c>
+      <c r="E55">
+        <v>0.0670006888779375</v>
+      </c>
+      <c r="F55">
+        <v>0.02271562928547859</v>
+      </c>
+      <c r="G55">
+        <v>0.03274900003549154</v>
+      </c>
+      <c r="H55">
+        <v>-0.03970164782581145</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1457444104846707</v>
+        <v>-0.1490180499751759</v>
       </c>
       <c r="C56">
-        <v>-0.1007602143931573</v>
+        <v>-0.114487989354932</v>
       </c>
       <c r="D56">
-        <v>0.01879488638247314</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.02256853600526692</v>
+      </c>
+      <c r="E56">
+        <v>0.05599700548646685</v>
+      </c>
+      <c r="F56">
+        <v>0.01956912033673987</v>
+      </c>
+      <c r="G56">
+        <v>0.04577457158747687</v>
+      </c>
+      <c r="H56">
+        <v>-0.04911841200980688</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.03761113740454165</v>
+        <v>-0.03353199186025902</v>
       </c>
       <c r="C58">
-        <v>0.01473024629757028</v>
+        <v>-0.009131975759546714</v>
       </c>
       <c r="D58">
-        <v>-0.4388895698313005</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.380117974125709</v>
+      </c>
+      <c r="E58">
+        <v>0.2180098361496976</v>
+      </c>
+      <c r="F58">
+        <v>0.0702254319384909</v>
+      </c>
+      <c r="G58">
+        <v>-0.5107135391537416</v>
+      </c>
+      <c r="H58">
+        <v>-0.2893648589245327</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1329989556221716</v>
+        <v>-0.1537396053744335</v>
       </c>
       <c r="C59">
-        <v>0.2040201095469885</v>
+        <v>0.1880149483271208</v>
       </c>
       <c r="D59">
-        <v>-0.0310197658830899</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.04249031772002795</v>
+      </c>
+      <c r="E59">
+        <v>0.01182835925722129</v>
+      </c>
+      <c r="F59">
+        <v>-0.02552632060977246</v>
+      </c>
+      <c r="G59">
+        <v>-0.0161017256431018</v>
+      </c>
+      <c r="H59">
+        <v>-0.02015074369931343</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2540171869282778</v>
+        <v>-0.2335378853564359</v>
       </c>
       <c r="C60">
-        <v>-0.07198015764272037</v>
+        <v>-0.08341203209674528</v>
       </c>
       <c r="D60">
-        <v>-0.1389673084789373</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1487743769626413</v>
+      </c>
+      <c r="E60">
+        <v>-0.3495977218330042</v>
+      </c>
+      <c r="F60">
+        <v>0.1307909971555699</v>
+      </c>
+      <c r="G60">
+        <v>-0.03582030355236266</v>
+      </c>
+      <c r="H60">
+        <v>-0.05676212423468232</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.05072487593787189</v>
+        <v>-0.04455317797877233</v>
       </c>
       <c r="C61">
-        <v>-0.05418583782353514</v>
+        <v>-0.0551763060747619</v>
       </c>
       <c r="D61">
-        <v>-0.08584774201181992</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.0869516313787335</v>
+      </c>
+      <c r="E61">
+        <v>0.02683277496406776</v>
+      </c>
+      <c r="F61">
+        <v>-0.006411455742763895</v>
+      </c>
+      <c r="G61">
+        <v>0.04798901899709122</v>
+      </c>
+      <c r="H61">
+        <v>0.06332087366857454</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01802345303619015</v>
+        <v>-0.01777036687575401</v>
       </c>
       <c r="C63">
-        <v>-0.02683470513840727</v>
+        <v>-0.02849392411308376</v>
       </c>
       <c r="D63">
-        <v>-0.04431824313828363</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.06473799947004349</v>
+      </c>
+      <c r="E63">
+        <v>0.06428001543718909</v>
+      </c>
+      <c r="F63">
+        <v>0.01874651396091058</v>
+      </c>
+      <c r="G63">
+        <v>0.02202174081511422</v>
+      </c>
+      <c r="H63">
+        <v>0.03710864994209694</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05619845773994449</v>
+        <v>-0.05820365468457665</v>
       </c>
       <c r="C64">
-        <v>-0.05590796645126287</v>
+        <v>-0.06827189724725224</v>
       </c>
       <c r="D64">
-        <v>-0.05521293319924744</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.0504211532862542</v>
+      </c>
+      <c r="E64">
+        <v>0.04107310191833045</v>
+      </c>
+      <c r="F64">
+        <v>-0.02671240669674013</v>
+      </c>
+      <c r="G64">
+        <v>0.07581975746074258</v>
+      </c>
+      <c r="H64">
+        <v>0.01748863992426956</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.06338984025250376</v>
+        <v>-0.05355170199754992</v>
       </c>
       <c r="C65">
-        <v>-0.02366999056839945</v>
+        <v>-0.02242952435635148</v>
       </c>
       <c r="D65">
-        <v>-0.09789965091573176</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1149538971567852</v>
+      </c>
+      <c r="E65">
+        <v>0.01484985365427816</v>
+      </c>
+      <c r="F65">
+        <v>0.01918941607464789</v>
+      </c>
+      <c r="G65">
+        <v>-0.03775148336008335</v>
+      </c>
+      <c r="H65">
+        <v>-0.01729435642792672</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.053524980139756</v>
+        <v>-0.04905533432716004</v>
       </c>
       <c r="C66">
-        <v>-0.06329490449252</v>
+        <v>-0.0692347943244168</v>
       </c>
       <c r="D66">
-        <v>-0.1010088474953612</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1173309707051609</v>
+      </c>
+      <c r="E66">
+        <v>0.03295678122043978</v>
+      </c>
+      <c r="F66">
+        <v>-0.006523510348923241</v>
+      </c>
+      <c r="G66">
+        <v>0.02840315510902299</v>
+      </c>
+      <c r="H66">
+        <v>0.06144685484964595</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.05455118844790982</v>
+        <v>-0.04341018075884463</v>
       </c>
       <c r="C67">
-        <v>-0.03239847438778951</v>
+        <v>-0.02892866009250124</v>
       </c>
       <c r="D67">
-        <v>-0.01298101038591302</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.02018345524134513</v>
+      </c>
+      <c r="E67">
+        <v>0.02671880290119654</v>
+      </c>
+      <c r="F67">
+        <v>0.003608349172093465</v>
+      </c>
+      <c r="G67">
+        <v>-0.005847057775479525</v>
+      </c>
+      <c r="H67">
+        <v>0.03580882044751695</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1449889358254121</v>
+        <v>-0.1662403641405279</v>
       </c>
       <c r="C68">
-        <v>0.287531061980989</v>
+        <v>0.2387933987155359</v>
       </c>
       <c r="D68">
-        <v>0.02607009087842971</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.0009818753950701978</v>
+      </c>
+      <c r="E68">
+        <v>0.05461755500552083</v>
+      </c>
+      <c r="F68">
+        <v>0.02925265792584261</v>
+      </c>
+      <c r="G68">
+        <v>-0.01492989419561507</v>
+      </c>
+      <c r="H68">
+        <v>-0.008475738059233183</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.09817474943303073</v>
+        <v>-0.09024249630996337</v>
       </c>
       <c r="C69">
-        <v>-0.08971755976130574</v>
+        <v>-0.09941584866555209</v>
       </c>
       <c r="D69">
-        <v>-0.02898844279149191</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.04400192889964366</v>
+      </c>
+      <c r="E69">
+        <v>0.04825140555666425</v>
+      </c>
+      <c r="F69">
+        <v>0.0005641655196325943</v>
+      </c>
+      <c r="G69">
+        <v>0.05920491886588542</v>
+      </c>
+      <c r="H69">
+        <v>0.013638087308613</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1288765245701016</v>
+        <v>-0.157583264553832</v>
       </c>
       <c r="C71">
-        <v>0.2522654797990407</v>
+        <v>0.2333284156015211</v>
       </c>
       <c r="D71">
-        <v>-0.03475213524013588</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.03167302884631863</v>
+      </c>
+      <c r="E71">
+        <v>0.05981996271351891</v>
+      </c>
+      <c r="F71">
+        <v>0.02534546938961565</v>
+      </c>
+      <c r="G71">
+        <v>0.04771520668069903</v>
+      </c>
+      <c r="H71">
+        <v>0.004476299012678212</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.0972181904929522</v>
+        <v>-0.1026961216021664</v>
       </c>
       <c r="C72">
-        <v>-0.0522927114291246</v>
+        <v>-0.05682894554719146</v>
       </c>
       <c r="D72">
-        <v>-0.07332156192135925</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.08579059526474167</v>
+      </c>
+      <c r="E72">
+        <v>-0.01105875424882325</v>
+      </c>
+      <c r="F72">
+        <v>0.03400765160569797</v>
+      </c>
+      <c r="G72">
+        <v>0.0552524124981147</v>
+      </c>
+      <c r="H72">
+        <v>0.01680756058247386</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.301117488018354</v>
+        <v>-0.2667315451339572</v>
       </c>
       <c r="C73">
-        <v>-0.002231143555904259</v>
+        <v>-0.0435046520117224</v>
       </c>
       <c r="D73">
-        <v>-0.2580238105560111</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.2381838223202402</v>
+      </c>
+      <c r="E73">
+        <v>-0.6415895891815639</v>
+      </c>
+      <c r="F73">
+        <v>0.1861759862476729</v>
+      </c>
+      <c r="G73">
+        <v>-0.06357074463727648</v>
+      </c>
+      <c r="H73">
+        <v>-0.05948504687171199</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1071872806221549</v>
+        <v>-0.1099551440359274</v>
       </c>
       <c r="C74">
-        <v>-0.09155124175509378</v>
+        <v>-0.0919210949476101</v>
       </c>
       <c r="D74">
-        <v>-0.01870725870924753</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.007847494014833511</v>
+      </c>
+      <c r="E74">
+        <v>0.07659772859840833</v>
+      </c>
+      <c r="F74">
+        <v>0.04085272479178707</v>
+      </c>
+      <c r="G74">
+        <v>0.02833680388470748</v>
+      </c>
+      <c r="H74">
+        <v>-0.08004163935837405</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2586271617421729</v>
+        <v>-0.2560025997778428</v>
       </c>
       <c r="C75">
-        <v>-0.116928938111827</v>
+        <v>-0.1429918135340459</v>
       </c>
       <c r="D75">
-        <v>0.1092985922120129</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1267159988208882</v>
+      </c>
+      <c r="E75">
+        <v>0.06149079546842302</v>
+      </c>
+      <c r="F75">
+        <v>-0.01631427024266772</v>
+      </c>
+      <c r="G75">
+        <v>0.03469337696276521</v>
+      </c>
+      <c r="H75">
+        <v>-0.1669828563705073</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1150079635581201</v>
+        <v>-0.1283694748383157</v>
       </c>
       <c r="C76">
-        <v>-0.09110986386929547</v>
+        <v>-0.1010059979713526</v>
       </c>
       <c r="D76">
-        <v>0.01259183957666998</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.02330691384541335</v>
+      </c>
+      <c r="E76">
+        <v>0.1042429855672806</v>
+      </c>
+      <c r="F76">
+        <v>-0.008970643958605737</v>
+      </c>
+      <c r="G76">
+        <v>0.04286986084721989</v>
+      </c>
+      <c r="H76">
+        <v>-0.05208177981054444</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.08522816341748315</v>
+        <v>-0.06753307660532037</v>
       </c>
       <c r="C77">
-        <v>-0.02613394587474136</v>
+        <v>-0.05779209307662603</v>
       </c>
       <c r="D77">
-        <v>-0.1005478085801811</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1232838619614379</v>
+      </c>
+      <c r="E77">
+        <v>0.06128821035224356</v>
+      </c>
+      <c r="F77">
+        <v>-0.2941820430312576</v>
+      </c>
+      <c r="G77">
+        <v>-0.1565617325695172</v>
+      </c>
+      <c r="H77">
+        <v>-0.1105955831890967</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.0404453425054347</v>
+        <v>-0.04460405734973486</v>
       </c>
       <c r="C78">
-        <v>-0.0425743951311764</v>
+        <v>-0.05382667588141835</v>
       </c>
       <c r="D78">
-        <v>-0.09117409650460619</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1234639244509958</v>
+      </c>
+      <c r="E78">
+        <v>0.03075306733674289</v>
+      </c>
+      <c r="F78">
+        <v>-0.0007108521881425256</v>
+      </c>
+      <c r="G78">
+        <v>0.03383122091773526</v>
+      </c>
+      <c r="H78">
+        <v>0.0176042829855932</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.003516876577053528</v>
+        <v>-0.04062908245902656</v>
       </c>
       <c r="C79">
-        <v>0.001593608027142812</v>
+        <v>-0.06635031718128288</v>
       </c>
       <c r="D79">
-        <v>-0.0156751653348546</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.05338358591715606</v>
+      </c>
+      <c r="E79">
+        <v>0.1233031199725612</v>
+      </c>
+      <c r="F79">
+        <v>0.03415463039703908</v>
+      </c>
+      <c r="G79">
+        <v>0.297319270542418</v>
+      </c>
+      <c r="H79">
+        <v>-0.7056043710257026</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.0376959183481128</v>
+        <v>-0.03045031928604401</v>
       </c>
       <c r="C80">
-        <v>-0.02785109794658368</v>
+        <v>-0.03817257657728855</v>
       </c>
       <c r="D80">
-        <v>-0.03112023802826805</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.03399852608673828</v>
+      </c>
+      <c r="E80">
+        <v>0.003782536386261922</v>
+      </c>
+      <c r="F80">
+        <v>-0.03986061119788439</v>
+      </c>
+      <c r="G80">
+        <v>-0.01461932324167813</v>
+      </c>
+      <c r="H80">
+        <v>0.04103985453497721</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1542733216241092</v>
+        <v>-0.1429923867625019</v>
       </c>
       <c r="C81">
-        <v>-0.1019833811521012</v>
+        <v>-0.1102200837401189</v>
       </c>
       <c r="D81">
-        <v>0.06813843330053332</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.08240967595031425</v>
+      </c>
+      <c r="E81">
+        <v>0.1049530823569939</v>
+      </c>
+      <c r="F81">
+        <v>-0.006910598766505165</v>
+      </c>
+      <c r="G81">
+        <v>0.03986500532079953</v>
+      </c>
+      <c r="H81">
+        <v>-0.07270582339207464</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2483889878987835</v>
+        <v>-0.2532451239684028</v>
       </c>
       <c r="C82">
-        <v>-0.1598712969996124</v>
+        <v>-0.2037330769373683</v>
       </c>
       <c r="D82">
-        <v>0.1887672199680789</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2223460346035273</v>
+      </c>
+      <c r="E82">
+        <v>-0.05747925651265027</v>
+      </c>
+      <c r="F82">
+        <v>0.0004264619932204836</v>
+      </c>
+      <c r="G82">
+        <v>0.3521700981046111</v>
+      </c>
+      <c r="H82">
+        <v>0.3139980565199811</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.04351697930352866</v>
+        <v>-0.02802848545368777</v>
       </c>
       <c r="C83">
-        <v>-0.03989040947448142</v>
+        <v>-0.04718222858515761</v>
       </c>
       <c r="D83">
-        <v>-0.07357129360064958</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05388938463448682</v>
+      </c>
+      <c r="E83">
+        <v>0.002521598619900814</v>
+      </c>
+      <c r="F83">
+        <v>-0.02793017355514754</v>
+      </c>
+      <c r="G83">
+        <v>-0.002046957286986412</v>
+      </c>
+      <c r="H83">
+        <v>0.02554541101998834</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-2.232972025655154e-06</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.002437908123296722</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.004066838620342214</v>
+      </c>
+      <c r="E84">
+        <v>0.009559081199498196</v>
+      </c>
+      <c r="F84">
+        <v>0.002937775222175177</v>
+      </c>
+      <c r="G84">
+        <v>-0.005465827788266187</v>
+      </c>
+      <c r="H84">
+        <v>0.007632720614983739</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1959050842143804</v>
+        <v>-0.1824427764676402</v>
       </c>
       <c r="C85">
-        <v>-0.09706882275978078</v>
+        <v>-0.1167603326735724</v>
       </c>
       <c r="D85">
-        <v>0.09525014161665787</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1007961262042213</v>
+      </c>
+      <c r="E85">
+        <v>0.03976657271238818</v>
+      </c>
+      <c r="F85">
+        <v>0.03575197301371724</v>
+      </c>
+      <c r="G85">
+        <v>0.09253877250024736</v>
+      </c>
+      <c r="H85">
+        <v>-0.1439096026153727</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01449068467069658</v>
+        <v>-0.01867620493595401</v>
       </c>
       <c r="C86">
-        <v>-0.01874655975657374</v>
+        <v>-0.01249224164698627</v>
       </c>
       <c r="D86">
-        <v>-0.1405398992661809</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1224058657792131</v>
+      </c>
+      <c r="E86">
+        <v>0.02593559661763907</v>
+      </c>
+      <c r="F86">
+        <v>-0.01167950766081978</v>
+      </c>
+      <c r="G86">
+        <v>0.04019889738500665</v>
+      </c>
+      <c r="H86">
+        <v>0.05175196010969696</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02904409968645866</v>
+        <v>-0.03100371068957104</v>
       </c>
       <c r="C87">
-        <v>0.005838603674726695</v>
+        <v>-0.01388864929607274</v>
       </c>
       <c r="D87">
-        <v>-0.1203797221998972</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1388722161200973</v>
+      </c>
+      <c r="E87">
+        <v>0.08447080904371539</v>
+      </c>
+      <c r="F87">
+        <v>-0.06110501299784888</v>
+      </c>
+      <c r="G87">
+        <v>-0.02965470227876153</v>
+      </c>
+      <c r="H87">
+        <v>0.02279765979252409</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.1020766726587314</v>
+        <v>-0.08539259944887348</v>
       </c>
       <c r="C88">
-        <v>-0.08767259131290178</v>
+        <v>-0.07127302863993769</v>
       </c>
       <c r="D88">
-        <v>-0.03877582942707575</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.03096859122065481</v>
+      </c>
+      <c r="E88">
+        <v>0.0585029272492265</v>
+      </c>
+      <c r="F88">
+        <v>0.00121389831723298</v>
+      </c>
+      <c r="G88">
+        <v>0.04991365015540489</v>
+      </c>
+      <c r="H88">
+        <v>0.04130207960295301</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.2050913807161074</v>
+        <v>-0.2411508499761817</v>
       </c>
       <c r="C89">
-        <v>0.365806198196102</v>
+        <v>0.3683408661051075</v>
       </c>
       <c r="D89">
-        <v>0.0296121384117024</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.004152864796480238</v>
+      </c>
+      <c r="E89">
+        <v>0.07942261195349266</v>
+      </c>
+      <c r="F89">
+        <v>-0.06297685550400454</v>
+      </c>
+      <c r="G89">
+        <v>0.03590459341202996</v>
+      </c>
+      <c r="H89">
+        <v>0.03160821023239135</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1943486424843675</v>
+        <v>-0.2152934389909657</v>
       </c>
       <c r="C90">
-        <v>0.3006287747894469</v>
+        <v>0.2846336826395114</v>
       </c>
       <c r="D90">
-        <v>0.02100729456703581</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01243233040157217</v>
+      </c>
+      <c r="E90">
+        <v>0.05689386471000514</v>
+      </c>
+      <c r="F90">
+        <v>-0.006565961735556997</v>
+      </c>
+      <c r="G90">
+        <v>-0.01499171379504092</v>
+      </c>
+      <c r="H90">
+        <v>0.05713469065697301</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1937890581928964</v>
+        <v>-0.184912725325772</v>
       </c>
       <c r="C91">
-        <v>-0.1586743501588196</v>
+        <v>-0.1619487262020775</v>
       </c>
       <c r="D91">
-        <v>0.07160983675847861</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.08766500933380179</v>
+      </c>
+      <c r="E91">
+        <v>0.08650040017359852</v>
+      </c>
+      <c r="F91">
+        <v>0.007559130082788306</v>
+      </c>
+      <c r="G91">
+        <v>0.03833439942553149</v>
+      </c>
+      <c r="H91">
+        <v>-0.1541913399885917</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1801731910304391</v>
+        <v>-0.1975769644111816</v>
       </c>
       <c r="C92">
-        <v>0.2665712454269145</v>
+        <v>0.2834279450845482</v>
       </c>
       <c r="D92">
-        <v>-0.02789994028938809</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.01059457236822916</v>
+      </c>
+      <c r="E92">
+        <v>0.07926132980514941</v>
+      </c>
+      <c r="F92">
+        <v>-0.04280173213409145</v>
+      </c>
+      <c r="G92">
+        <v>0.03939895053077675</v>
+      </c>
+      <c r="H92">
+        <v>0.03649026311176824</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2171549424013988</v>
+        <v>-0.2362916163918259</v>
       </c>
       <c r="C93">
-        <v>0.3204517556250277</v>
+        <v>0.3008849743232497</v>
       </c>
       <c r="D93">
-        <v>0.004749240403311377</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.008007814672262749</v>
+      </c>
+      <c r="E93">
+        <v>0.04335279391942218</v>
+      </c>
+      <c r="F93">
+        <v>0.02907216402565255</v>
+      </c>
+      <c r="G93">
+        <v>0.03256570166259722</v>
+      </c>
+      <c r="H93">
+        <v>0.01729442908467441</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3899834236114286</v>
+        <v>-0.3579771357637418</v>
       </c>
       <c r="C94">
-        <v>-0.2137691826818409</v>
+        <v>-0.2253413387615242</v>
       </c>
       <c r="D94">
-        <v>0.4821535059119409</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4272873579804905</v>
+      </c>
+      <c r="E94">
+        <v>0.08633844205373625</v>
+      </c>
+      <c r="F94">
+        <v>-0.07956276914890625</v>
+      </c>
+      <c r="G94">
+        <v>-0.5991784336016412</v>
+      </c>
+      <c r="H94">
+        <v>0.1696279109269299</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.0923750589254649</v>
+        <v>-0.06908594627606977</v>
       </c>
       <c r="C95">
-        <v>0.03036226909239919</v>
+        <v>-0.0273695568733815</v>
       </c>
       <c r="D95">
-        <v>-0.1187647127027084</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1224451960542394</v>
+      </c>
+      <c r="E95">
+        <v>-0.2176246164226968</v>
+      </c>
+      <c r="F95">
+        <v>-0.8890743502235863</v>
+      </c>
+      <c r="G95">
+        <v>0.05215951001245163</v>
+      </c>
+      <c r="H95">
+        <v>-0.07027250412203297</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1672512427878134</v>
+        <v>-0.1682158485169152</v>
       </c>
       <c r="C98">
-        <v>-0.007388207457427041</v>
+        <v>-0.03917014102054755</v>
       </c>
       <c r="D98">
-        <v>-0.1697023340425222</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.156542768140272</v>
+      </c>
+      <c r="E98">
+        <v>-0.2657534236792771</v>
+      </c>
+      <c r="F98">
+        <v>0.1171828189168795</v>
+      </c>
+      <c r="G98">
+        <v>-0.003621256897315283</v>
+      </c>
+      <c r="H98">
+        <v>-0.01193655766935064</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.008364643254293952</v>
+        <v>-0.00797400659732931</v>
       </c>
       <c r="C101">
-        <v>-0.02623705418450188</v>
+        <v>-0.02349770700172547</v>
       </c>
       <c r="D101">
-        <v>-0.05337047515729975</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.07215433262451151</v>
+      </c>
+      <c r="E101">
+        <v>0.06014048634145615</v>
+      </c>
+      <c r="F101">
+        <v>0.001671829835321407</v>
+      </c>
+      <c r="G101">
+        <v>0.04717108506088837</v>
+      </c>
+      <c r="H101">
+        <v>0.07647591811313482</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1224570829853451</v>
+        <v>-0.1207092279272551</v>
       </c>
       <c r="C102">
-        <v>-0.07870431846699856</v>
+        <v>-0.110010120959866</v>
       </c>
       <c r="D102">
-        <v>0.02556983189648068</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.04835920302893119</v>
+      </c>
+      <c r="E102">
+        <v>0.01159219199799937</v>
+      </c>
+      <c r="F102">
+        <v>-0.02397171843380679</v>
+      </c>
+      <c r="G102">
+        <v>0.04798096068895401</v>
+      </c>
+      <c r="H102">
+        <v>-0.02358878945564189</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
